--- a/biology/Zoologie/Actiniidae/Actiniidae.xlsx
+++ b/biology/Zoologie/Actiniidae/Actiniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Actiniidae sont la plus importante des familles d'anémones de mer, qui rassemble la majorité des espèces communément rencontrées dans les mers côtières tempérées. La plupart ne présentent pas de symbiose avec d'autres organismes, une exception remarquable étant Entacmaea quadricolor. La systématique de la famille est particulièrement difficile.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (11 décembre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (11 décembre 2014) :
 genre Actinia Linnaeus, 1767
 genre Actinioides Haddon &amp; Shackleton, 1893
 genre Actinopsis
